--- a/biology/Botanique/Matourea/Matourea.xlsx
+++ b/biology/Botanique/Matourea/Matourea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matourea est un genre végétal de la famille des Plantaginaceae (Scrophulariaceae selon l'ancienne classification classique de Cronquist (1981)[2]). L'espèce type est Matourea pratensis Aubl..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matourea est un genre végétal de la famille des Plantaginaceae (Scrophulariaceae selon l'ancienne classification classique de Cronquist (1981)). L'espèce type est Matourea pratensis Aubl..
 Le nom Matourea se réfère au nom de la commune de Matoury en Guyane.
-Ce genre regroupe de nombreuses espèces autrefois rangées dans les anciens genres Achetaria, Beyrichia, Dickia, Otacanthus et Tetraplacus[3].
+Ce genre regroupe de nombreuses espèces autrefois rangées dans les anciens genres Achetaria, Beyrichia, Dickia, Otacanthus et Tetraplacus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MATOUREA. (Tabula 259.)
 CAL. Perianthium monophyllum, quadripartitum ; foliolis oblongis, vilioſis, acutis. 
 COR. monopetala, bilabiata ; tubus longus, incurvus ; faux patens ; labium ſuperius erectum, bifidum ; labium inferius deflexum, triſidum, lacinia intermedia pauló longiore, obtuſa. 
@@ -551,7 +565,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon (en) Référence Tropicos : Matourea Aubl.   (+ liste sous-taxons) (consulté le 7 décembre 2021) :
 Matourea azurea (Linden) Colletta &amp; V.C. Souza
